--- a/data/bank_data dictionary.xlsx
+++ b/data/bank_data dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repos\_bank_marketing_campaign_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9075DE03-2215-44D3-AF58-B4C2FEF03F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA10DF80-246A-401C-9E12-A378FD64460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="600" windowWidth="36195" windowHeight="19890"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -362,13 +362,58 @@
   </si>
   <si>
     <t>Rowwise aggregate calculation for counting customers</t>
+  </si>
+  <si>
+    <t>model comments</t>
+  </si>
+  <si>
+    <t>incl. one-hot encoding</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>incl. one-hot encoding for bins [18, 30, 40, 50, 60, 70, 80] grouped into age_group</t>
+  </si>
+  <si>
+    <t>incl. one-hot encoding for bins made via KBinsDiscretizer(n_bins=5, encode='ordinal', strategy='quantile')</t>
+  </si>
+  <si>
+    <t>left as is (note this data is heavily skewed)</t>
+  </si>
+  <si>
+    <t>Used threshold capping (99th percentile)</t>
+  </si>
+  <si>
+    <t>incl. one-hot encoding (manual)</t>
+  </si>
+  <si>
+    <t>dependent variable</t>
+  </si>
+  <si>
+    <t>one-hot encoded</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>this is a generated user_id</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Previous Campaign outcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,8 +548,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,8 +750,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -800,6 +884,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -845,8 +968,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1202,935 +1335,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="96.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G3" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G6" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G10" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G12" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G13" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G14" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G15" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G16" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G17" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G18" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G19" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G20" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G21" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="2">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G22" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G23" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2">
+        <v>22</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G25" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="2">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G26" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="2">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G27" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G28" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="2">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G29" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="2">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G30" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="2">
+        <v>29</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="2">
+        <v>30</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="2">
+        <v>31</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="2">
+        <v>32</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="2">
+        <v>33</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="2">
+        <v>34</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="2">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G37" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="G38" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="2">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G39" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="2">
+        <v>38</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="G41" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="2">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G42" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="G43" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="2">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G44" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="2">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G45" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G46" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="2">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>113</v>
+      <c r="G47" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>